--- a/Production/C3R/JLC/JLCSMT_Sample_CPL1.xlsx
+++ b/Production/C3R/JLC/JLCSMT_Sample_CPL1.xlsx
@@ -187,10 +187,10 @@
   <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.01953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
@@ -258,13 +258,13 @@
         <v>75.0025</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-64.843</v>
+        <v>-61.593</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,7 +349,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
